--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300000</v>
+        <v>305000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Bárbara</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151170696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Renovable Entre Cerros</t>
+          <t>Parque Fotovoltaico Santa Bárbara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inversiones BOSQUEMAR Ltda</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100320</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151186629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151170696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Parque Renovable Entre Cerros</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones BOSQUEMAR Ltda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>100320</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151186629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,11 +635,11 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2475</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S/E Hualte 66/33/13,8 kV</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2800</v>
+        <v>2475</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>S/E Hualte 66/33/13,8 kV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla Colchagua y Maule S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1480</v>
+        <v>6500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Empresa Eléctrica de Melipilla Colchagua y Maule S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>234</v>
+        <v>1480</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Ninhue (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ninhue</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1385642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Plan Regulador Comunal de Ninhue (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Ilustre Municipalidad de Ninhue</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1385642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Construcción Liceo Polivalente e Internado de Ninhue</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cecilia Magdadalena Jerez Méndez</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1500</v>
+        <v>712</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>04/08/1999</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,43 +1624,91 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Construcción Liceo Polivalente e Internado de Ninhue</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cecilia Magdadalena Jerez Méndez</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>04/08/1999</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Ninhue</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Reposición de Consultorio General Rural de Ninhue</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Décimosexta</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>I. Municipalidad de Ninhue</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F28" t="n">
         <v>380</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>15/07/1997</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=290&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Ninhue</t>
         </is>

--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla Colchagua y Maule S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">

--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">

--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Planta de Tratamiento de RILes Bodega Ninhue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>CORRETAJES TORRES Y CIA LTDA.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>305000</v>
+        <v>1403</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>13/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158632684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300000</v>
+        <v>305000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Santa Bárbara</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151170696&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Renovable Entre Cerros</t>
+          <t>Parque Fotovoltaico Santa Bárbara</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inversiones BOSQUEMAR Ltda</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100320</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151186629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151170696&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Parque Renovable Entre Cerros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Inversiones BOSQUEMAR Ltda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>100320</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151186629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,11 +683,11 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2475</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S/E Hualte 66/33/13,8 kV</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2800</v>
+        <v>2475</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14/11/2012</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>S/E Hualte 66/33/13,8 kV</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/11/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7465585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1480</v>
+        <v>6500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>234</v>
+        <v>1480</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Ninhue (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Ninhue</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/05/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1385642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Plan Regulador Comunal de Ninhue (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Ilustre Municipalidad de Ninhue</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>18/05/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1385642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Construcción Liceo Polivalente e Internado de Ninhue</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cecilia Magdadalena Jerez Méndez</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1500</v>
+        <v>712</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/08/1999</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,43 +1672,91 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Construcción Liceo Polivalente e Internado de Ninhue</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cecilia Magdadalena Jerez Méndez</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>04/08/1999</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Ninhue</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Reposición de Consultorio General Rural de Ninhue</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Décimosexta</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>I. Municipalidad de Ninhue</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>380</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>15/07/1997</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=290&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Ninhue</t>
         </is>

--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Santa Bárbara SpA</t>
         </is>
       </c>
       <c r="F5" t="n">

--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/02/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Ninhue.xlsx
+++ b/data/Ninhue.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inversiones BOSQUEMAR Ltda</t>
+          <t>Eólica Entre Cerros SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
